--- a/clusteredauxiliarycolor.xlsx
+++ b/clusteredauxiliarycolor.xlsx
@@ -424,70 +424,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>194.77215189873417 208.5443037974684 217.69620253164555</t>
+          <t>167.8615384615385 159.73846153846156 165.5230769230769</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113.87719298245614 113.59649122807018 113.26315789473685</t>
+          <t>88.4727272727273 72.7090909090909 88.29090909090911</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29.72413793103449 31.448275862068982 38.37931034482759</t>
+          <t>74.86666666666669 53.333333333333314 169.73333333333332</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50.6153846153846 64.04615384615386 153.0</t>
+          <t>207.75 126.4 77.79999999999998</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>142.5194805194805 159.66233766233768 183.75324675324674</t>
+          <t>126.05357142857143 112.25 120.23214285714285</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>84.91176470588235 121.92647058823529 191.70588235294116</t>
+          <t>214.8571428571429 219.8571428571428 221.17582417582415</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>158.5 81.22222222222223 39.16666666666667</t>
+          <t>113.73076923076923 95.48076923076923 214.59615384615387</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>72.43478260869564 70.47826086956525 76.56521739130436</t>
+          <t>143.46666666666667 54.866666666666646 37.20000000000002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>177.0344827586207 153.55172413793105 106.41379310344828</t>
+          <t>51.438596491228125 36.54385964912282 49.38596491228071</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>249.25 250.625 251.25</t>
+          <t>49.56000000000002 29.239999999999995 136.92</t>
         </is>
       </c>
     </row>
